--- a/jibing_feature_res_final.xlsx
+++ b/jibing_feature_res_final.xlsx
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -497,7 +497,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -517,7 +517,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -537,7 +537,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -562,12 +562,12 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -592,7 +592,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -637,7 +637,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -647,7 +647,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -657,7 +657,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -667,7 +667,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -677,12 +677,12 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -697,7 +697,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -757,7 +757,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -772,7 +772,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -807,7 +807,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -827,7 +827,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -892,7 +892,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -927,7 +927,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -982,12 +982,12 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1032,7 +1032,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1052,7 +1052,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1087,12 +1087,12 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1127,7 +1127,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1157,12 +1157,12 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1187,7 +1187,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1257,12 +1257,12 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -1282,7 +1282,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1307,7 +1307,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -1332,7 +1332,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -1352,7 +1352,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -1377,12 +1377,12 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -1397,7 +1397,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -1447,7 +1447,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -1462,7 +1462,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -1532,7 +1532,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -1572,7 +1572,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -1632,12 +1632,12 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -1647,7 +1647,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -1657,7 +1657,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -1667,7 +1667,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -1692,7 +1692,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -1742,7 +1742,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -1757,7 +1757,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -1927,7 +1927,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -1952,7 +1952,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -2007,12 +2007,12 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -2037,7 +2037,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -2047,7 +2047,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -2057,7 +2057,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -2122,7 +2122,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -2137,12 +2137,12 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -2167,7 +2167,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -2182,12 +2182,12 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -2212,7 +2212,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -2222,7 +2222,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -2237,7 +2237,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -2257,7 +2257,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -2292,7 +2292,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -2307,7 +2307,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -2322,7 +2322,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -2332,12 +2332,12 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -2367,7 +2367,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -2402,12 +2402,12 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -2422,7 +2422,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -2467,7 +2467,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -2477,7 +2477,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -2497,7 +2497,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -2522,7 +2522,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -2547,12 +2547,12 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -2572,12 +2572,12 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -2592,7 +2592,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -2617,7 +2617,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -2642,7 +2642,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -2682,7 +2682,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -2692,7 +2692,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -2737,7 +2737,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -2787,7 +2787,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -2797,7 +2797,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -2812,7 +2812,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -2842,7 +2842,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -2877,7 +2877,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -2887,7 +2887,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -2897,7 +2897,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -2932,7 +2932,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -2957,7 +2957,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -2977,7 +2977,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -2987,7 +2987,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -3052,12 +3052,12 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -3067,7 +3067,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -3102,7 +3102,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -3127,17 +3127,17 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -3167,7 +3167,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -3177,7 +3177,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -3227,12 +3227,12 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -3252,7 +3252,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -3262,12 +3262,12 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -3312,7 +3312,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -3322,7 +3322,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -3337,7 +3337,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -3407,7 +3407,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -3437,7 +3437,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -3482,7 +3482,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -3507,7 +3507,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -3532,7 +3532,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -3572,7 +3572,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -3612,12 +3612,12 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -3627,12 +3627,12 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -3657,17 +3657,17 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
@@ -3677,7 +3677,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -3707,7 +3707,7 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -3847,12 +3847,12 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -3887,7 +3887,7 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -3907,7 +3907,7 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -3942,7 +3942,7 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -3967,7 +3967,7 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -3997,7 +3997,7 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -4047,7 +4047,7 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
@@ -4092,7 +4092,7 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -4102,7 +4102,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -4137,7 +4137,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -4187,7 +4187,7 @@
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -4197,7 +4197,7 @@
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754">
@@ -4227,7 +4227,7 @@
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -4252,17 +4252,17 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
@@ -4287,7 +4287,7 @@
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -4302,7 +4302,7 @@
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -4317,12 +4317,12 @@
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779">
@@ -4337,12 +4337,12 @@
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783">
@@ -4362,7 +4362,7 @@
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -4407,12 +4407,12 @@
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797">
@@ -4442,7 +4442,7 @@
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -4457,7 +4457,7 @@
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806">
@@ -4472,7 +4472,7 @@
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809">
@@ -4487,12 +4487,12 @@
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813">
@@ -4542,7 +4542,7 @@
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -4572,7 +4572,7 @@
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829">
@@ -4592,7 +4592,7 @@
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833">
@@ -4617,7 +4617,7 @@
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -4637,7 +4637,7 @@
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -4657,7 +4657,7 @@
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846">
@@ -4667,12 +4667,12 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849">
@@ -4687,12 +4687,12 @@
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853">
@@ -4732,17 +4732,17 @@
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863">
@@ -4782,7 +4782,7 @@
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874">
@@ -4812,12 +4812,12 @@
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878">
@@ -4872,7 +4872,7 @@
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -4902,12 +4902,12 @@
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -4942,7 +4942,7 @@
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -4962,12 +4962,12 @@
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -4977,7 +4977,7 @@
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910">
@@ -5007,7 +5007,7 @@
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916">
@@ -5022,7 +5022,7 @@
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -5032,7 +5032,7 @@
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -5047,7 +5047,7 @@
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924">
@@ -5067,7 +5067,7 @@
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928">
@@ -5082,7 +5082,7 @@
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931">
@@ -5092,7 +5092,7 @@
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -5102,12 +5102,12 @@
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -5152,7 +5152,7 @@
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -5202,12 +5202,12 @@
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956">
@@ -5237,7 +5237,7 @@
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962">
@@ -5252,7 +5252,7 @@
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -5272,7 +5272,7 @@
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969">
@@ -5317,12 +5317,12 @@
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979">
@@ -5342,7 +5342,7 @@
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983">
@@ -5352,7 +5352,7 @@
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985">
@@ -5362,7 +5362,7 @@
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987">
@@ -5392,7 +5392,7 @@
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993">
@@ -5422,7 +5422,7 @@
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
@@ -5432,7 +5432,7 @@
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001">
@@ -5442,7 +5442,7 @@
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003">
@@ -5462,17 +5462,17 @@
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -5487,7 +5487,7 @@
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012">
@@ -5537,12 +5537,12 @@
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023">
@@ -5557,7 +5557,7 @@
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026">
@@ -5572,7 +5572,7 @@
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -5627,12 +5627,12 @@
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041">
@@ -5647,7 +5647,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044">
@@ -5662,7 +5662,7 @@
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -5687,7 +5687,7 @@
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -5697,7 +5697,7 @@
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054">
@@ -5712,7 +5712,7 @@
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -5737,7 +5737,7 @@
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062">
@@ -5767,7 +5767,7 @@
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -5792,7 +5792,7 @@
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -5842,12 +5842,12 @@
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -5862,7 +5862,7 @@
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087">
@@ -5892,7 +5892,7 @@
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -5912,7 +5912,7 @@
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -5922,7 +5922,7 @@
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -5937,7 +5937,7 @@
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -5952,7 +5952,7 @@
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105">
@@ -5967,17 +5967,17 @@
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110">
@@ -5997,12 +5997,12 @@
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115">
@@ -6022,12 +6022,12 @@
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -6042,7 +6042,7 @@
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -6057,7 +6057,7 @@
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126">
@@ -6072,7 +6072,7 @@
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -6097,7 +6097,7 @@
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134">
@@ -6112,12 +6112,12 @@
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138">
@@ -6152,7 +6152,7 @@
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145">
@@ -6162,7 +6162,7 @@
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147">
@@ -6217,7 +6217,7 @@
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158">
@@ -6337,12 +6337,12 @@
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183">
@@ -6352,7 +6352,7 @@
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185">
@@ -6362,17 +6362,17 @@
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189">
@@ -6382,7 +6382,7 @@
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191">
@@ -6427,12 +6427,12 @@
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201">
@@ -6447,7 +6447,7 @@
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -6497,7 +6497,7 @@
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214">
@@ -6517,12 +6517,12 @@
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219">
@@ -6532,7 +6532,7 @@
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221">
@@ -6582,12 +6582,12 @@
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232">
@@ -6597,17 +6597,17 @@
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236">
@@ -6637,7 +6637,7 @@
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242">
@@ -6682,7 +6682,7 @@
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251">
@@ -6717,12 +6717,12 @@
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259">
@@ -6742,7 +6742,7 @@
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263">
@@ -6782,12 +6782,12 @@
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272">
@@ -6807,7 +6807,7 @@
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276">
@@ -6822,7 +6822,7 @@
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1279">
@@ -6872,12 +6872,12 @@
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290">
@@ -6892,12 +6892,12 @@
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294">
@@ -6952,7 +6952,7 @@
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -6967,7 +6967,7 @@
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308">
@@ -6987,17 +6987,17 @@
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -7012,7 +7012,7 @@
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317">
@@ -7032,7 +7032,7 @@
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321">
@@ -7052,7 +7052,7 @@
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -7067,7 +7067,7 @@
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -7077,7 +7077,7 @@
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -7097,7 +7097,7 @@
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -7112,7 +7112,7 @@
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337">
@@ -7147,7 +7147,7 @@
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344">
@@ -7172,7 +7172,7 @@
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349">
@@ -7202,7 +7202,7 @@
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355">
@@ -7222,7 +7222,7 @@
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1359">
@@ -7247,7 +7247,7 @@
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1364">
@@ -7317,7 +7317,7 @@
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378">
@@ -7332,7 +7332,7 @@
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1381">
@@ -7357,7 +7357,7 @@
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1386">
@@ -7367,7 +7367,7 @@
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388">
@@ -7387,12 +7387,12 @@
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1393">
@@ -7422,7 +7422,7 @@
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1399">
@@ -7432,7 +7432,7 @@
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401">
@@ -7457,7 +7457,7 @@
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1406">
@@ -7487,7 +7487,7 @@
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1412">
@@ -7502,7 +7502,7 @@
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1415">
@@ -7517,7 +7517,7 @@
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418">
@@ -7547,7 +7547,7 @@
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -7557,7 +7557,7 @@
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426">
@@ -7597,7 +7597,7 @@
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1434">
@@ -7622,7 +7622,7 @@
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439">
@@ -7672,17 +7672,17 @@
     </row>
     <row r="1448">
       <c r="A1448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451">
@@ -7707,7 +7707,7 @@
     </row>
     <row r="1455">
       <c r="A1455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1456">
@@ -7722,7 +7722,7 @@
     </row>
     <row r="1458">
       <c r="A1458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1459">
@@ -7732,7 +7732,7 @@
     </row>
     <row r="1460">
       <c r="A1460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1461">
@@ -7752,7 +7752,7 @@
     </row>
     <row r="1464">
       <c r="A1464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1465">
@@ -7812,7 +7812,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477">
@@ -7832,12 +7832,12 @@
     </row>
     <row r="1480">
       <c r="A1480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1482">
@@ -7867,7 +7867,7 @@
     </row>
     <row r="1487">
       <c r="A1487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1488">
@@ -7887,7 +7887,7 @@
     </row>
     <row r="1491">
       <c r="A1491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492">
@@ -7897,7 +7897,7 @@
     </row>
     <row r="1493">
       <c r="A1493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494">
@@ -7932,12 +7932,12 @@
     </row>
     <row r="1500">
       <c r="A1500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502">
@@ -7952,17 +7952,17 @@
     </row>
     <row r="1504">
       <c r="A1504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1507">
@@ -7977,17 +7977,17 @@
     </row>
     <row r="1509">
       <c r="A1509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1512">
@@ -8007,7 +8007,7 @@
     </row>
     <row r="1515">
       <c r="A1515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1516">
@@ -8017,7 +8017,7 @@
     </row>
     <row r="1517">
       <c r="A1517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1518">
@@ -8032,12 +8032,12 @@
     </row>
     <row r="1520">
       <c r="A1520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1522">
@@ -8052,7 +8052,7 @@
     </row>
     <row r="1524">
       <c r="A1524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1525">
@@ -8067,7 +8067,7 @@
     </row>
     <row r="1527">
       <c r="A1527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1528">
@@ -8127,12 +8127,12 @@
     </row>
     <row r="1539">
       <c r="A1539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1541">
@@ -8157,7 +8157,7 @@
     </row>
     <row r="1545">
       <c r="A1545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1546">
@@ -8197,7 +8197,7 @@
     </row>
     <row r="1553">
       <c r="A1553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554">
@@ -8222,7 +8222,7 @@
     </row>
     <row r="1558">
       <c r="A1558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1559">
@@ -8247,7 +8247,7 @@
     </row>
     <row r="1563">
       <c r="A1563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1564">
@@ -8262,7 +8262,7 @@
     </row>
     <row r="1566">
       <c r="A1566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1567">
@@ -8302,7 +8302,7 @@
     </row>
     <row r="1574">
       <c r="A1574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1575">
@@ -8327,7 +8327,7 @@
     </row>
     <row r="1579">
       <c r="A1579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -8347,12 +8347,12 @@
     </row>
     <row r="1583">
       <c r="A1583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1585">
@@ -8362,7 +8362,7 @@
     </row>
     <row r="1586">
       <c r="A1586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1587">

--- a/jibing_feature_res_final.xlsx
+++ b/jibing_feature_res_final.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -497,7 +497,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -517,7 +517,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -537,7 +537,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -557,7 +557,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -567,7 +567,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -592,7 +592,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -647,7 +647,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -667,17 +667,17 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -697,7 +697,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -772,7 +772,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -827,7 +827,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -842,7 +842,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -852,7 +852,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -882,7 +882,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -892,7 +892,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -927,7 +927,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -942,7 +942,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -987,7 +987,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1087,12 +1087,12 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1127,7 +1127,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -1152,7 +1152,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1162,7 +1162,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -1187,7 +1187,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -1237,7 +1237,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -1262,12 +1262,12 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -1282,7 +1282,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -1297,7 +1297,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -1377,7 +1377,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -1397,7 +1397,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -1412,7 +1412,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -1527,7 +1527,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -1597,7 +1597,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -1622,7 +1622,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -1632,12 +1632,12 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -1647,7 +1647,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -1657,7 +1657,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -1667,7 +1667,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -1687,12 +1687,12 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -1762,7 +1762,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -1882,7 +1882,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -1952,7 +1952,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -1987,7 +1987,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -2012,7 +2012,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -2027,7 +2027,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -2047,7 +2047,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -2087,7 +2087,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -2122,7 +2122,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -2182,7 +2182,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -2202,7 +2202,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -2212,7 +2212,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -2322,12 +2322,12 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -2342,7 +2342,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -2352,7 +2352,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -2402,7 +2402,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -2442,12 +2442,12 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -2457,7 +2457,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -2467,12 +2467,12 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -2497,12 +2497,12 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -2522,7 +2522,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -2582,7 +2582,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -2617,7 +2617,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -2692,7 +2692,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -2797,7 +2797,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -2812,7 +2812,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -2842,7 +2842,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -2862,12 +2862,12 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -2882,7 +2882,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -2897,7 +2897,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -2907,7 +2907,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -2957,7 +2957,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -3017,7 +3017,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -3057,7 +3057,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -3067,7 +3067,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -3112,7 +3112,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -3127,7 +3127,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -3147,7 +3147,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -3167,7 +3167,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -3177,7 +3177,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -3197,7 +3197,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -3232,7 +3232,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -3252,12 +3252,12 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -3322,7 +3322,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -3337,7 +3337,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -3352,7 +3352,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -3407,7 +3407,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -3432,12 +3432,12 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -3477,7 +3477,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -3502,7 +3502,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -3512,7 +3512,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -3557,7 +3557,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
@@ -3667,7 +3667,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -3677,7 +3677,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -3692,7 +3692,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -3707,17 +3707,17 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -3777,7 +3777,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -3807,17 +3807,17 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -3827,7 +3827,7 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
@@ -3847,12 +3847,12 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -3882,7 +3882,7 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -3942,7 +3942,7 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -4017,7 +4017,7 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -4082,7 +4082,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -4092,17 +4092,17 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -4137,7 +4137,7 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -4192,17 +4192,17 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -4252,7 +4252,7 @@
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -4262,7 +4262,7 @@
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -4272,7 +4272,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -4282,7 +4282,7 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771">
@@ -4317,12 +4317,12 @@
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -4337,12 +4337,12 @@
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -4357,12 +4357,12 @@
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -4472,12 +4472,12 @@
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -4487,12 +4487,12 @@
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -4522,7 +4522,7 @@
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819">
@@ -4542,7 +4542,7 @@
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -4572,7 +4572,7 @@
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -4587,12 +4587,12 @@
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -4617,7 +4617,7 @@
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -4657,7 +4657,7 @@
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -4667,12 +4667,12 @@
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -4682,7 +4682,7 @@
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851">
@@ -4692,7 +4692,7 @@
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -4722,7 +4722,7 @@
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859">
@@ -4737,7 +4737,7 @@
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862">
@@ -4747,7 +4747,7 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864">
@@ -4777,12 +4777,12 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -4817,7 +4817,7 @@
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -4827,7 +4827,7 @@
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -4842,7 +4842,7 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883">
@@ -4872,7 +4872,7 @@
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -5032,7 +5032,7 @@
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921">
@@ -5047,7 +5047,7 @@
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -5097,17 +5097,17 @@
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -5187,7 +5187,7 @@
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -5207,7 +5207,7 @@
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -5247,12 +5247,12 @@
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965">
@@ -5272,12 +5272,12 @@
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970">
@@ -5342,7 +5342,7 @@
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983">
@@ -5352,7 +5352,7 @@
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -5362,7 +5362,7 @@
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987">
@@ -5462,7 +5462,7 @@
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -5472,7 +5472,7 @@
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009">
@@ -5497,7 +5497,7 @@
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014">
@@ -5537,7 +5537,7 @@
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022">
@@ -5552,7 +5552,7 @@
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
@@ -5607,7 +5607,7 @@
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -5627,7 +5627,7 @@
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040">
@@ -5647,7 +5647,7 @@
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044">
@@ -5662,12 +5662,12 @@
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -5707,12 +5707,12 @@
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057">
@@ -5732,12 +5732,12 @@
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -5747,17 +5747,17 @@
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066">
@@ -5767,7 +5767,7 @@
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068">
@@ -5792,7 +5792,7 @@
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -5827,7 +5827,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -5842,12 +5842,12 @@
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084">
@@ -5857,12 +5857,12 @@
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087">
@@ -5882,7 +5882,7 @@
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -5892,12 +5892,12 @@
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -5912,7 +5912,7 @@
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -5932,12 +5932,12 @@
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102">
@@ -5947,7 +5947,7 @@
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -5972,7 +5972,7 @@
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -6002,7 +6002,7 @@
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115">
@@ -6022,12 +6022,12 @@
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120">
@@ -6042,7 +6042,7 @@
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123">
@@ -6072,7 +6072,7 @@
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129">
@@ -6092,7 +6092,7 @@
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133">
@@ -6112,7 +6112,7 @@
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137">
@@ -6127,7 +6127,7 @@
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140">
@@ -6147,7 +6147,7 @@
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144">
@@ -6212,12 +6212,12 @@
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158">
@@ -6287,7 +6287,7 @@
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172">
@@ -6317,7 +6317,7 @@
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178">
@@ -6337,7 +6337,7 @@
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -6352,7 +6352,7 @@
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185">
@@ -6367,12 +6367,12 @@
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189">
@@ -6427,17 +6427,17 @@
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202">
@@ -6447,7 +6447,7 @@
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204">
@@ -6472,7 +6472,7 @@
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209">
@@ -6497,7 +6497,7 @@
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214">
@@ -6512,17 +6512,17 @@
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219">
@@ -6532,7 +6532,7 @@
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221">
@@ -6547,7 +6547,7 @@
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224">
@@ -6582,12 +6582,12 @@
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232">
@@ -6607,12 +6607,12 @@
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237">
@@ -6627,17 +6627,17 @@
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242">
@@ -6672,7 +6672,7 @@
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249">
@@ -6702,7 +6702,7 @@
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255">
@@ -6732,7 +6732,7 @@
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261">
@@ -6742,7 +6742,7 @@
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -6797,7 +6797,7 @@
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
@@ -6807,7 +6807,7 @@
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276">
@@ -6822,7 +6822,7 @@
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279">
@@ -6832,7 +6832,7 @@
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281">
@@ -6862,7 +6862,7 @@
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287">
@@ -6872,12 +6872,12 @@
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -6897,7 +6897,7 @@
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -6907,7 +6907,7 @@
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296">
@@ -6917,7 +6917,7 @@
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298">
@@ -6942,7 +6942,7 @@
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303">
@@ -6952,7 +6952,7 @@
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305">
@@ -6987,12 +6987,12 @@
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313">
@@ -7002,7 +7002,7 @@
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315">
@@ -7032,7 +7032,7 @@
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321">
@@ -7042,7 +7042,7 @@
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323">
@@ -7112,7 +7112,7 @@
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -7122,12 +7122,12 @@
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340">
@@ -7172,17 +7172,17 @@
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1351">
@@ -7217,7 +7217,7 @@
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1358">
@@ -7247,7 +7247,7 @@
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1364">
@@ -7292,7 +7292,7 @@
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373">
@@ -7302,7 +7302,7 @@
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375">
@@ -7332,12 +7332,12 @@
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382">
@@ -7352,12 +7352,12 @@
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1386">
@@ -7387,7 +7387,7 @@
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1392">
@@ -7402,7 +7402,7 @@
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1395">
@@ -7417,7 +7417,7 @@
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1398">
@@ -7442,22 +7442,22 @@
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406">
@@ -7487,7 +7487,7 @@
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1412">
@@ -7517,7 +7517,7 @@
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1418">
@@ -7547,7 +7547,7 @@
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1424">
@@ -7562,7 +7562,7 @@
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1427">
@@ -7577,7 +7577,7 @@
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430">
@@ -7687,7 +7687,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1452">
@@ -7707,7 +7707,7 @@
     </row>
     <row r="1455">
       <c r="A1455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1456">
@@ -7742,7 +7742,7 @@
     </row>
     <row r="1462">
       <c r="A1462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1463">
@@ -7752,12 +7752,12 @@
     </row>
     <row r="1464">
       <c r="A1464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466">
@@ -7787,7 +7787,7 @@
     </row>
     <row r="1471">
       <c r="A1471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1472">
@@ -7797,12 +7797,12 @@
     </row>
     <row r="1473">
       <c r="A1473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1475">
@@ -7822,7 +7822,7 @@
     </row>
     <row r="1478">
       <c r="A1478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479">
@@ -7832,12 +7832,12 @@
     </row>
     <row r="1480">
       <c r="A1480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1482">
@@ -7887,12 +7887,12 @@
     </row>
     <row r="1491">
       <c r="A1491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1493">
@@ -7902,7 +7902,7 @@
     </row>
     <row r="1494">
       <c r="A1494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1495">
@@ -7932,12 +7932,12 @@
     </row>
     <row r="1500">
       <c r="A1500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1502">
@@ -7952,17 +7952,17 @@
     </row>
     <row r="1504">
       <c r="A1504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1507">
@@ -7977,7 +7977,7 @@
     </row>
     <row r="1509">
       <c r="A1509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1510">
@@ -8017,7 +8017,7 @@
     </row>
     <row r="1517">
       <c r="A1517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1518">
@@ -8027,7 +8027,7 @@
     </row>
     <row r="1519">
       <c r="A1519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1520">
@@ -8112,7 +8112,7 @@
     </row>
     <row r="1536">
       <c r="A1536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1537">
@@ -8122,7 +8122,7 @@
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1539">
@@ -8132,7 +8132,7 @@
     </row>
     <row r="1540">
       <c r="A1540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1541">
@@ -8192,7 +8192,7 @@
     </row>
     <row r="1552">
       <c r="A1552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1553">
@@ -8207,12 +8207,12 @@
     </row>
     <row r="1555">
       <c r="A1555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1557">
@@ -8247,7 +8247,7 @@
     </row>
     <row r="1563">
       <c r="A1563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1564">
@@ -8277,7 +8277,7 @@
     </row>
     <row r="1569">
       <c r="A1569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1570">
@@ -8332,12 +8332,12 @@
     </row>
     <row r="1580">
       <c r="A1580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582">
@@ -8347,7 +8347,7 @@
     </row>
     <row r="1583">
       <c r="A1583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1584">

--- a/jibing_feature_res_final.xlsx
+++ b/jibing_feature_res_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1590"/>
+  <dimension ref="A1:A1599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,22 +447,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -487,7 +487,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -502,12 +502,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -517,7 +517,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -547,7 +547,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -557,12 +557,12 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -587,7 +587,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -647,7 +647,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -667,17 +667,17 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -702,7 +702,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -712,7 +712,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -737,7 +737,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -772,7 +772,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -812,12 +812,12 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -842,7 +842,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -852,7 +852,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -877,12 +877,12 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -942,7 +942,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -982,7 +982,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1007,7 +1007,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1027,12 +1027,12 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1057,12 +1057,12 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1077,7 +1077,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1092,7 +1092,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1162,7 +1162,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1237,7 +1237,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -1257,22 +1257,22 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -1297,12 +1297,12 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -1337,7 +1337,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -1412,7 +1412,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -1422,7 +1422,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -1442,7 +1442,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -1527,7 +1527,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -1542,7 +1542,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -1597,7 +1597,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -1622,17 +1622,17 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -1697,7 +1697,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -1732,7 +1732,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -1742,7 +1742,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -1762,7 +1762,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -1812,7 +1812,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -1832,7 +1832,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -1867,7 +1867,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -1882,7 +1882,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -1902,7 +1902,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -1952,7 +1952,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -1987,7 +1987,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -2022,17 +2022,17 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -2047,7 +2047,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -2057,7 +2057,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -2087,7 +2087,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -2097,7 +2097,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -2177,7 +2177,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -2202,7 +2202,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -2217,7 +2217,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -2232,7 +2232,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -2242,7 +2242,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -2282,12 +2282,12 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -2342,7 +2342,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -2352,17 +2352,17 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -2417,7 +2417,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -2442,12 +2442,12 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -2472,7 +2472,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -2502,7 +2502,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -2527,12 +2527,12 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -2547,7 +2547,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -2572,22 +2572,22 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -2597,7 +2597,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -2667,7 +2667,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -2692,7 +2692,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -2707,17 +2707,17 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -2787,7 +2787,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -2857,7 +2857,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -2867,32 +2867,32 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -2907,12 +2907,12 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -2937,7 +2937,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -2952,7 +2952,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -2992,7 +2992,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -3017,12 +3017,12 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -3032,17 +3032,17 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -3112,7 +3112,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -3147,7 +3147,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -3192,7 +3192,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -3232,7 +3232,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -3262,7 +3262,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -3337,7 +3337,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -3352,7 +3352,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -3367,7 +3367,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -3407,12 +3407,12 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -3432,17 +3432,17 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
@@ -3477,12 +3477,12 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -3502,7 +3502,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -3512,7 +3512,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -3547,7 +3547,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
@@ -3557,7 +3557,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -3572,7 +3572,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -3617,7 +3617,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -3677,7 +3677,7 @@
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -3692,7 +3692,7 @@
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -3712,7 +3712,7 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -3742,7 +3742,7 @@
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -3777,7 +3777,7 @@
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -3812,12 +3812,12 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -3827,12 +3827,12 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -3862,7 +3862,7 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -3872,7 +3872,7 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -3882,7 +3882,7 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -3892,7 +3892,7 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -4017,7 +4017,7 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -4057,7 +4057,7 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -4082,7 +4082,7 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -4097,7 +4097,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -4192,7 +4192,7 @@
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -4202,7 +4202,7 @@
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -4247,7 +4247,7 @@
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -4272,7 +4272,7 @@
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -4282,12 +4282,12 @@
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -4357,12 +4357,12 @@
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -4412,7 +4412,7 @@
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -4437,7 +4437,7 @@
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802">
@@ -4457,12 +4457,12 @@
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807">
@@ -4477,7 +4477,7 @@
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810">
@@ -4497,17 +4497,17 @@
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -4522,7 +4522,7 @@
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -4532,7 +4532,7 @@
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821">
@@ -4587,7 +4587,7 @@
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832">
@@ -4602,7 +4602,7 @@
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -4682,7 +4682,7 @@
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -4722,7 +4722,7 @@
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859">
@@ -4747,7 +4747,7 @@
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -4757,7 +4757,7 @@
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -4777,7 +4777,7 @@
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874">
@@ -4827,7 +4827,7 @@
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
@@ -4842,7 +4842,7 @@
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -4872,7 +4872,7 @@
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889">
@@ -4892,7 +4892,7 @@
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893">
@@ -4927,7 +4927,7 @@
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -4942,7 +4942,7 @@
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -4962,7 +4962,7 @@
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -4972,7 +4972,7 @@
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909">
@@ -5032,7 +5032,7 @@
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -5067,7 +5067,7 @@
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -5087,17 +5087,17 @@
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934">
@@ -5107,7 +5107,7 @@
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -5132,7 +5132,7 @@
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -5147,7 +5147,7 @@
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944">
@@ -5202,12 +5202,12 @@
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956">
@@ -5247,7 +5247,7 @@
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964">
@@ -5257,7 +5257,7 @@
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966">
@@ -5277,12 +5277,12 @@
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971">
@@ -5317,7 +5317,7 @@
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978">
@@ -5327,7 +5327,7 @@
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980">
@@ -5337,12 +5337,12 @@
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983">
@@ -5377,7 +5377,7 @@
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990">
@@ -5392,7 +5392,7 @@
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993">
@@ -5432,7 +5432,7 @@
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001">
@@ -5442,7 +5442,7 @@
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -5457,7 +5457,7 @@
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006">
@@ -5467,12 +5467,12 @@
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
@@ -5497,7 +5497,7 @@
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014">
@@ -5527,7 +5527,7 @@
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020">
@@ -5547,12 +5547,12 @@
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
@@ -5562,7 +5562,7 @@
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027">
@@ -5667,7 +5667,7 @@
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048">
@@ -5692,7 +5692,7 @@
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053">
@@ -5702,7 +5702,7 @@
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055">
@@ -5722,7 +5722,7 @@
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -5732,12 +5732,12 @@
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062">
@@ -5747,7 +5747,7 @@
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064">
@@ -5757,7 +5757,7 @@
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066">
@@ -5767,7 +5767,7 @@
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -5827,7 +5827,7 @@
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -5857,7 +5857,7 @@
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086">
@@ -5867,12 +5867,12 @@
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -5882,17 +5882,17 @@
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -5907,7 +5907,7 @@
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -5917,7 +5917,7 @@
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098">
@@ -5927,12 +5927,12 @@
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101">
@@ -5947,7 +5947,7 @@
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -5967,7 +5967,7 @@
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108">
@@ -6102,7 +6102,7 @@
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135">
@@ -6117,7 +6117,7 @@
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138">
@@ -6127,12 +6127,12 @@
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141">
@@ -6147,7 +6147,7 @@
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144">
@@ -6197,7 +6197,7 @@
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154">
@@ -6212,7 +6212,7 @@
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157">
@@ -6312,12 +6312,12 @@
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
@@ -6427,7 +6427,7 @@
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -6437,7 +6437,7 @@
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202">
@@ -6467,17 +6467,17 @@
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210">
@@ -6512,12 +6512,12 @@
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
@@ -6552,22 +6552,22 @@
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -6597,7 +6597,7 @@
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234">
@@ -6612,7 +6612,7 @@
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -6627,12 +6627,12 @@
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241">
@@ -6642,7 +6642,7 @@
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243">
@@ -6672,17 +6672,17 @@
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251">
@@ -6702,12 +6702,12 @@
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256">
@@ -6722,7 +6722,7 @@
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259">
@@ -6732,7 +6732,7 @@
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -6752,7 +6752,7 @@
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265">
@@ -6782,7 +6782,7 @@
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271">
@@ -6807,7 +6807,7 @@
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276">
@@ -6832,7 +6832,7 @@
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -6862,7 +6862,7 @@
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287">
@@ -6877,7 +6877,7 @@
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290">
@@ -6887,7 +6887,7 @@
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292">
@@ -6897,7 +6897,7 @@
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294">
@@ -6907,7 +6907,7 @@
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296">
@@ -6932,7 +6932,7 @@
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -6942,7 +6942,7 @@
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303">
@@ -6967,7 +6967,7 @@
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312">
@@ -7002,12 +7002,12 @@
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316">
@@ -7017,7 +7017,7 @@
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318">
@@ -7032,7 +7032,7 @@
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321">
@@ -7042,7 +7042,7 @@
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323">
@@ -7067,7 +7067,7 @@
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328">
@@ -7127,7 +7127,7 @@
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -7137,7 +7137,7 @@
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342">
@@ -7152,7 +7152,7 @@
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345">
@@ -7172,17 +7172,17 @@
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351">
@@ -7197,7 +7197,7 @@
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -7252,7 +7252,7 @@
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1365">
@@ -7272,7 +7272,7 @@
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1369">
@@ -7292,17 +7292,17 @@
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -7327,17 +7327,17 @@
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1382">
@@ -7347,12 +7347,12 @@
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1385">
@@ -7372,7 +7372,7 @@
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1389">
@@ -7387,7 +7387,7 @@
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1392">
@@ -7397,7 +7397,7 @@
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1394">
@@ -7422,7 +7422,7 @@
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399">
@@ -7432,7 +7432,7 @@
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401">
@@ -7442,22 +7442,22 @@
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1406">
@@ -7482,12 +7482,12 @@
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1412">
@@ -7517,7 +7517,7 @@
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418">
@@ -7557,27 +7557,27 @@
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1430">
@@ -7667,7 +7667,7 @@
     </row>
     <row r="1447">
       <c r="A1447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1448">
@@ -7677,7 +7677,7 @@
     </row>
     <row r="1449">
       <c r="A1449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450">
@@ -7687,7 +7687,7 @@
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452">
@@ -7752,12 +7752,12 @@
     </row>
     <row r="1464">
       <c r="A1464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1466">
@@ -7787,7 +7787,7 @@
     </row>
     <row r="1471">
       <c r="A1471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1472">
@@ -7797,12 +7797,12 @@
     </row>
     <row r="1473">
       <c r="A1473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1475">
@@ -7812,7 +7812,7 @@
     </row>
     <row r="1476">
       <c r="A1476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1477">
@@ -7892,7 +7892,7 @@
     </row>
     <row r="1492">
       <c r="A1492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493">
@@ -7902,7 +7902,7 @@
     </row>
     <row r="1494">
       <c r="A1494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1495">
@@ -7982,7 +7982,7 @@
     </row>
     <row r="1510">
       <c r="A1510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511">
@@ -8007,7 +8007,7 @@
     </row>
     <row r="1515">
       <c r="A1515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1516">
@@ -8027,7 +8027,7 @@
     </row>
     <row r="1519">
       <c r="A1519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1520">
@@ -8057,7 +8057,7 @@
     </row>
     <row r="1525">
       <c r="A1525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1526">
@@ -8112,7 +8112,7 @@
     </row>
     <row r="1536">
       <c r="A1536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1537">
@@ -8122,7 +8122,7 @@
     </row>
     <row r="1538">
       <c r="A1538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1539">
@@ -8152,7 +8152,7 @@
     </row>
     <row r="1544">
       <c r="A1544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1545">
@@ -8192,7 +8192,7 @@
     </row>
     <row r="1552">
       <c r="A1552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553">
@@ -8207,12 +8207,12 @@
     </row>
     <row r="1555">
       <c r="A1555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1557">
@@ -8277,7 +8277,7 @@
     </row>
     <row r="1569">
       <c r="A1569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1570">
@@ -8332,7 +8332,7 @@
     </row>
     <row r="1580">
       <c r="A1580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1581">
@@ -8347,7 +8347,7 @@
     </row>
     <row r="1583">
       <c r="A1583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1584">
@@ -8382,6 +8382,51 @@
     </row>
     <row r="1590">
       <c r="A1590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
         <v>0</v>
       </c>
     </row>
